--- a/ai/assets/textbook/pinyin/20211028.xlsx
+++ b/ai/assets/textbook/pinyin/20211028.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessie.chiao\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\AIChatFilter\service\ai-chatfilter-service\ai\assets\textbook\pinyin\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF02C2AD-0EF2-4C69-88C7-07A1CF96DBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1392" yWindow="3252" windowWidth="17316" windowHeight="12240"/>
+    <workbookView xWindow="-21150" yWindow="1785" windowWidth="20280" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1606,14 +1607,15 @@
     <t xml:space="preserve"> {viplv4}{dt1-10-9-28}离谱 还不如打鱼</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;msg&gt;&lt;yplv&gt;0&lt;/yplv&gt;&lt;dt&gt;1-10-5-26&lt;/dt&gt;∴前面开几条鱼后面死鱼了&lt;isAnchorPlatformMsg&gt;0&lt;/isAnchorPlatformMsg&gt;&lt;/msg&gt;</t>
+    <t xml:space="preserve"> &lt;msg&gt;&lt;yplv&gt;0&lt;/yplv&gt;&lt;dt&gt;1-10-5-26&lt;/dt&gt;前面开几条鱼后面死鱼了&lt;isAnchorPlatformMsg&gt;0&lt;/isAnchorPlatformMsg&gt;&lt;/msg&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1975,21 +1977,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E439"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A306" workbookViewId="0">
-      <selection activeCell="A324" sqref="A324"/>
+    <sheetView tabSelected="1" topLeftCell="A427" workbookViewId="0">
+      <selection activeCell="A442" sqref="A442"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="153.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="153.125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="32.4">
+    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2003,7 +2005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -2013,7 +2015,7 @@
       <c r="C2" s="2"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -2023,7 +2025,7 @@
       <c r="C3" s="2"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -2033,7 +2035,7 @@
       <c r="C4" s="2"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -2043,7 +2045,7 @@
       <c r="C5" s="2"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -2053,7 +2055,7 @@
       <c r="C6" s="2"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -2063,7 +2065,7 @@
       <c r="C7" s="2"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -2073,7 +2075,7 @@
       <c r="C8" s="2"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -2083,7 +2085,7 @@
       <c r="C9" s="2"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
@@ -2093,7 +2095,7 @@
       <c r="C10" s="2"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
@@ -2101,7 +2103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
@@ -2109,7 +2111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -2117,7 +2119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -2125,7 +2127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -2133,7 +2135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
@@ -2141,7 +2143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
@@ -2149,7 +2151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -2157,7 +2159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -2165,7 +2167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,7 +2175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
@@ -2181,7 +2183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
@@ -2189,7 +2191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
@@ -2197,7 +2199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
@@ -2205,7 +2207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -2219,7 +2221,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -2233,7 +2235,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
@@ -2247,7 +2249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
@@ -2258,7 +2260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
@@ -2272,7 +2274,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -2283,7 +2285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
@@ -2294,7 +2296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>54</v>
       </c>
@@ -2308,7 +2310,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>57</v>
       </c>
@@ -2319,7 +2321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -2330,7 +2332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
@@ -2341,7 +2343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,7 +2354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
@@ -2366,7 +2368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
@@ -2380,7 +2382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>63</v>
       </c>
@@ -2394,7 +2396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
@@ -2405,7 +2407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
@@ -2419,7 +2421,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>67</v>
       </c>
@@ -2433,7 +2435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>68</v>
       </c>
@@ -2447,7 +2449,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>69</v>
       </c>
@@ -2461,7 +2463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>71</v>
       </c>
@@ -2475,7 +2477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>72</v>
       </c>
@@ -2489,7 +2491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>73</v>
       </c>
@@ -2503,7 +2505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>74</v>
       </c>
@@ -2517,7 +2519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>75</v>
       </c>
@@ -2531,7 +2533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>76</v>
       </c>
@@ -2545,7 +2547,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>78</v>
       </c>
@@ -2559,7 +2561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>79</v>
       </c>
@@ -2573,7 +2575,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>81</v>
       </c>
@@ -2587,7 +2589,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>82</v>
       </c>
@@ -2601,7 +2603,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>83</v>
       </c>
@@ -2615,7 +2617,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>84</v>
       </c>
@@ -2629,7 +2631,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>85</v>
       </c>
@@ -2643,7 +2645,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>86</v>
       </c>
@@ -2657,7 +2659,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>87</v>
       </c>
@@ -2668,7 +2670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>88</v>
       </c>
@@ -2679,7 +2681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>89</v>
       </c>
@@ -2690,7 +2692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>90</v>
       </c>
@@ -2704,7 +2706,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>92</v>
       </c>
@@ -2718,7 +2720,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>94</v>
       </c>
@@ -2732,7 +2734,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>96</v>
       </c>
@@ -2746,7 +2748,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>98</v>
       </c>
@@ -2760,7 +2762,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>99</v>
       </c>
@@ -2774,7 +2776,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>100</v>
       </c>
@@ -2788,7 +2790,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>101</v>
       </c>
@@ -2802,7 +2804,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>102</v>
       </c>
@@ -2816,7 +2818,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>103</v>
       </c>
@@ -2830,7 +2832,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>105</v>
       </c>
@@ -2844,7 +2846,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>106</v>
       </c>
@@ -2858,7 +2860,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>107</v>
       </c>
@@ -2872,7 +2874,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>108</v>
       </c>
@@ -2886,7 +2888,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>109</v>
       </c>
@@ -2900,7 +2902,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>110</v>
       </c>
@@ -2914,7 +2916,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>111</v>
       </c>
@@ -2928,7 +2930,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>112</v>
       </c>
@@ -2942,7 +2944,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>113</v>
       </c>
@@ -2956,7 +2958,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>115</v>
       </c>
@@ -2970,7 +2972,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>116</v>
       </c>
@@ -2984,7 +2986,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>117</v>
       </c>
@@ -2998,7 +3000,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>118</v>
       </c>
@@ -3012,7 +3014,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>119</v>
       </c>
@@ -3026,7 +3028,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>120</v>
       </c>
@@ -3040,7 +3042,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>121</v>
       </c>
@@ -3054,7 +3056,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>122</v>
       </c>
@@ -3068,7 +3070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>123</v>
       </c>
@@ -3082,7 +3084,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>124</v>
       </c>
@@ -3093,7 +3095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>125</v>
       </c>
@@ -3107,7 +3109,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>127</v>
       </c>
@@ -3121,7 +3123,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>128</v>
       </c>
@@ -3132,7 +3134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>129</v>
       </c>
@@ -3143,7 +3145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>12</v>
       </c>
@@ -3154,7 +3156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>130</v>
       </c>
@@ -3168,7 +3170,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>132</v>
       </c>
@@ -3179,7 +3181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>133</v>
       </c>
@@ -3193,7 +3195,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>135</v>
       </c>
@@ -3207,7 +3209,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>137</v>
       </c>
@@ -3221,7 +3223,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>138</v>
       </c>
@@ -3232,7 +3234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>139</v>
       </c>
@@ -3246,7 +3248,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>141</v>
       </c>
@@ -3260,7 +3262,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>142</v>
       </c>
@@ -3274,7 +3276,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>143</v>
       </c>
@@ -3285,7 +3287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>144</v>
       </c>
@@ -3299,7 +3301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>145</v>
       </c>
@@ -3313,7 +3315,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>146</v>
       </c>
@@ -3327,7 +3329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>13</v>
       </c>
@@ -3338,7 +3340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>147</v>
       </c>
@@ -3352,7 +3354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>148</v>
       </c>
@@ -3366,7 +3368,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>150</v>
       </c>
@@ -3377,7 +3379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>151</v>
       </c>
@@ -3391,7 +3393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>152</v>
       </c>
@@ -3405,7 +3407,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>153</v>
       </c>
@@ -3419,7 +3421,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>155</v>
       </c>
@@ -3430,7 +3432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>156</v>
       </c>
@@ -3444,7 +3446,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>158</v>
       </c>
@@ -3458,7 +3460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>159</v>
       </c>
@@ -3472,7 +3474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>160</v>
       </c>
@@ -3486,7 +3488,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>162</v>
       </c>
@@ -3500,7 +3502,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>163</v>
       </c>
@@ -3514,7 +3516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>164</v>
       </c>
@@ -3528,7 +3530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>165</v>
       </c>
@@ -3542,7 +3544,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>167</v>
       </c>
@@ -3553,7 +3555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>168</v>
       </c>
@@ -3564,7 +3566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>169</v>
       </c>
@@ -3575,7 +3577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>170</v>
       </c>
@@ -3589,7 +3591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>171</v>
       </c>
@@ -3600,7 +3602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>172</v>
       </c>
@@ -3611,7 +3613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>173</v>
       </c>
@@ -3622,7 +3624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>174</v>
       </c>
@@ -3633,7 +3635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>175</v>
       </c>
@@ -3644,7 +3646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>176</v>
       </c>
@@ -3655,7 +3657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>177</v>
       </c>
@@ -3666,7 +3668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>178</v>
       </c>
@@ -3680,7 +3682,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>180</v>
       </c>
@@ -3694,7 +3696,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>181</v>
       </c>
@@ -3708,7 +3710,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>182</v>
       </c>
@@ -3722,7 +3724,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>183</v>
       </c>
@@ -3736,7 +3738,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>184</v>
       </c>
@@ -3750,7 +3752,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>185</v>
       </c>
@@ -3764,7 +3766,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>186</v>
       </c>
@@ -3778,7 +3780,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>188</v>
       </c>
@@ -3792,7 +3794,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>189</v>
       </c>
@@ -3806,7 +3808,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>190</v>
       </c>
@@ -3820,7 +3822,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>18</v>
       </c>
@@ -3834,7 +3836,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>19</v>
       </c>
@@ -3848,7 +3850,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>191</v>
       </c>
@@ -3862,7 +3864,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>193</v>
       </c>
@@ -3876,7 +3878,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>192</v>
       </c>
@@ -3890,7 +3892,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>20</v>
       </c>
@@ -3904,7 +3906,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>194</v>
       </c>
@@ -3918,7 +3920,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>196</v>
       </c>
@@ -3932,7 +3934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>197</v>
       </c>
@@ -3943,7 +3945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>198</v>
       </c>
@@ -3957,7 +3959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>199</v>
       </c>
@@ -3971,7 +3973,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>200</v>
       </c>
@@ -3985,7 +3987,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>201</v>
       </c>
@@ -3999,7 +4001,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>202</v>
       </c>
@@ -4013,7 +4015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>203</v>
       </c>
@@ -4027,7 +4029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>204</v>
       </c>
@@ -4041,7 +4043,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>207</v>
       </c>
@@ -4055,7 +4057,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>205</v>
       </c>
@@ -4069,7 +4071,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>209</v>
       </c>
@@ -4083,7 +4085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>210</v>
       </c>
@@ -4097,7 +4099,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>212</v>
       </c>
@@ -4111,7 +4113,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>213</v>
       </c>
@@ -4125,7 +4127,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>214</v>
       </c>
@@ -4139,7 +4141,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>215</v>
       </c>
@@ -4153,7 +4155,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>216</v>
       </c>
@@ -4167,7 +4169,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>217</v>
       </c>
@@ -4181,7 +4183,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>218</v>
       </c>
@@ -4195,7 +4197,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>219</v>
       </c>
@@ -4209,7 +4211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>220</v>
       </c>
@@ -4223,7 +4225,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>221</v>
       </c>
@@ -4237,7 +4239,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>222</v>
       </c>
@@ -4251,7 +4253,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>223</v>
       </c>
@@ -4265,7 +4267,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>224</v>
       </c>
@@ -4279,7 +4281,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>226</v>
       </c>
@@ -4293,7 +4295,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>227</v>
       </c>
@@ -4307,7 +4309,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>229</v>
       </c>
@@ -4318,7 +4320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>230</v>
       </c>
@@ -4332,7 +4334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>231</v>
       </c>
@@ -4346,7 +4348,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>233</v>
       </c>
@@ -4360,7 +4362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>234</v>
       </c>
@@ -4374,7 +4376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>235</v>
       </c>
@@ -4388,7 +4390,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>236</v>
       </c>
@@ -4402,7 +4404,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>237</v>
       </c>
@@ -4416,7 +4418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>238</v>
       </c>
@@ -4430,7 +4432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>239</v>
       </c>
@@ -4444,7 +4446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>240</v>
       </c>
@@ -4458,7 +4460,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>241</v>
       </c>
@@ -4472,7 +4474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>242</v>
       </c>
@@ -4483,7 +4485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>243</v>
       </c>
@@ -4497,7 +4499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>244</v>
       </c>
@@ -4508,7 +4510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>245</v>
       </c>
@@ -4522,7 +4524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>22</v>
       </c>
@@ -4533,7 +4535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>246</v>
       </c>
@@ -4544,7 +4546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>247</v>
       </c>
@@ -4555,7 +4557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>248</v>
       </c>
@@ -4566,7 +4568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>249</v>
       </c>
@@ -4577,7 +4579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>250</v>
       </c>
@@ -4591,7 +4593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>251</v>
       </c>
@@ -4602,7 +4604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>252</v>
       </c>
@@ -4616,7 +4618,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>254</v>
       </c>
@@ -4630,7 +4632,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>255</v>
       </c>
@@ -4644,7 +4646,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>256</v>
       </c>
@@ -4658,7 +4660,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>257</v>
       </c>
@@ -4672,7 +4674,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>258</v>
       </c>
@@ -4686,7 +4688,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>259</v>
       </c>
@@ -4700,7 +4702,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>260</v>
       </c>
@@ -4714,7 +4716,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>261</v>
       </c>
@@ -4728,7 +4730,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>262</v>
       </c>
@@ -4742,7 +4744,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>264</v>
       </c>
@@ -4756,7 +4758,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>263</v>
       </c>
@@ -4770,7 +4772,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>266</v>
       </c>
@@ -4784,7 +4786,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>267</v>
       </c>
@@ -4798,7 +4800,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>268</v>
       </c>
@@ -4812,7 +4814,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>269</v>
       </c>
@@ -4826,7 +4828,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>270</v>
       </c>
@@ -4840,7 +4842,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>271</v>
       </c>
@@ -4854,7 +4856,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>272</v>
       </c>
@@ -4868,7 +4870,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>273</v>
       </c>
@@ -4882,7 +4884,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>274</v>
       </c>
@@ -4893,7 +4895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>275</v>
       </c>
@@ -4907,7 +4909,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>277</v>
       </c>
@@ -4921,7 +4923,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>279</v>
       </c>
@@ -4932,7 +4934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>280</v>
       </c>
@@ -4943,7 +4945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>281</v>
       </c>
@@ -4954,7 +4956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>282</v>
       </c>
@@ -4965,7 +4967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>283</v>
       </c>
@@ -4976,7 +4978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>284</v>
       </c>
@@ -4987,7 +4989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>285</v>
       </c>
@@ -4998,7 +5000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>286</v>
       </c>
@@ -5009,7 +5011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>287</v>
       </c>
@@ -5023,7 +5025,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>288</v>
       </c>
@@ -5034,7 +5036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>289</v>
       </c>
@@ -5045,7 +5047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>290</v>
       </c>
@@ -5059,7 +5061,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>291</v>
       </c>
@@ -5073,7 +5075,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>292</v>
       </c>
@@ -5087,7 +5089,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>293</v>
       </c>
@@ -5101,7 +5103,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>294</v>
       </c>
@@ -5115,7 +5117,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>295</v>
       </c>
@@ -5126,7 +5128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>296</v>
       </c>
@@ -5137,7 +5139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>297</v>
       </c>
@@ -5148,7 +5150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>298</v>
       </c>
@@ -5159,7 +5161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>299</v>
       </c>
@@ -5173,7 +5175,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>300</v>
       </c>
@@ -5184,7 +5186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>301</v>
       </c>
@@ -5198,7 +5200,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>303</v>
       </c>
@@ -5212,7 +5214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>304</v>
       </c>
@@ -5226,7 +5228,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>322</v>
       </c>
@@ -5237,7 +5239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>305</v>
       </c>
@@ -5248,7 +5250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>306</v>
       </c>
@@ -5259,7 +5261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>307</v>
       </c>
@@ -5270,7 +5272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>308</v>
       </c>
@@ -5281,7 +5283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>309</v>
       </c>
@@ -5292,7 +5294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>310</v>
       </c>
@@ -5303,7 +5305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>311</v>
       </c>
@@ -5314,7 +5316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>312</v>
       </c>
@@ -5325,7 +5327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>313</v>
       </c>
@@ -5336,7 +5338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>314</v>
       </c>
@@ -5347,7 +5349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>315</v>
       </c>
@@ -5358,7 +5360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>316</v>
       </c>
@@ -5369,7 +5371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>317</v>
       </c>
@@ -5380,7 +5382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>318</v>
       </c>
@@ -5391,7 +5393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>319</v>
       </c>
@@ -5402,7 +5404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>320</v>
       </c>
@@ -5413,7 +5415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>321</v>
       </c>
@@ -5424,7 +5426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>323</v>
       </c>
@@ -5435,7 +5437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>324</v>
       </c>
@@ -5449,7 +5451,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>325</v>
       </c>
@@ -5463,7 +5465,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>326</v>
       </c>
@@ -5474,7 +5476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>327</v>
       </c>
@@ -5485,7 +5487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>328</v>
       </c>
@@ -5496,7 +5498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>329</v>
       </c>
@@ -5507,7 +5509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>330</v>
       </c>
@@ -5518,7 +5520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>331</v>
       </c>
@@ -5529,7 +5531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>332</v>
       </c>
@@ -5540,7 +5542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>333</v>
       </c>
@@ -5551,7 +5553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>334</v>
       </c>
@@ -5562,7 +5564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>335</v>
       </c>
@@ -5573,7 +5575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>337</v>
       </c>
@@ -5584,7 +5586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>336</v>
       </c>
@@ -5595,7 +5597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>338</v>
       </c>
@@ -5606,7 +5608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>339</v>
       </c>
@@ -5617,7 +5619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>340</v>
       </c>
@@ -5628,7 +5630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>341</v>
       </c>
@@ -5639,7 +5641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>342</v>
       </c>
@@ -5650,7 +5652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>343</v>
       </c>
@@ -5661,7 +5663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>23</v>
       </c>
@@ -5672,7 +5674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>345</v>
       </c>
@@ -5683,7 +5685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>344</v>
       </c>
@@ -5694,7 +5696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>24</v>
       </c>
@@ -5705,7 +5707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>346</v>
       </c>
@@ -5716,7 +5718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>347</v>
       </c>
@@ -5727,7 +5729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>348</v>
       </c>
@@ -5738,7 +5740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>349</v>
       </c>
@@ -5749,7 +5751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>25</v>
       </c>
@@ -5760,7 +5762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>350</v>
       </c>
@@ -5771,7 +5773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>351</v>
       </c>
@@ -5782,7 +5784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>352</v>
       </c>
@@ -5793,7 +5795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>353</v>
       </c>
@@ -5804,7 +5806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>354</v>
       </c>
@@ -5815,7 +5817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>355</v>
       </c>
@@ -5826,7 +5828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>356</v>
       </c>
@@ -5837,7 +5839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>357</v>
       </c>
@@ -5848,7 +5850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>358</v>
       </c>
@@ -5859,7 +5861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>359</v>
       </c>
@@ -5870,7 +5872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>360</v>
       </c>
@@ -5881,7 +5883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>361</v>
       </c>
@@ -5892,7 +5894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>362</v>
       </c>
@@ -5903,7 +5905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>363</v>
       </c>
@@ -5914,7 +5916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>364</v>
       </c>
@@ -5925,7 +5927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>16</v>
       </c>
@@ -5936,7 +5938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>365</v>
       </c>
@@ -5944,7 +5946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>366</v>
       </c>
@@ -5952,7 +5954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>367</v>
       </c>
@@ -5960,7 +5962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>368</v>
       </c>
@@ -5968,7 +5970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>369</v>
       </c>
@@ -5976,7 +5978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>370</v>
       </c>
@@ -5984,7 +5986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>371</v>
       </c>
@@ -5992,7 +5994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>372</v>
       </c>
@@ -6000,7 +6002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>373</v>
       </c>
@@ -6008,7 +6010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>374</v>
       </c>
@@ -6016,7 +6018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>375</v>
       </c>
@@ -6024,7 +6026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>376</v>
       </c>
@@ -6032,7 +6034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>377</v>
       </c>
@@ -6040,7 +6042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>378</v>
       </c>
@@ -6048,7 +6050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>379</v>
       </c>
@@ -6056,7 +6058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>380</v>
       </c>
@@ -6064,7 +6066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>367</v>
       </c>
@@ -6072,7 +6074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>381</v>
       </c>
@@ -6080,7 +6082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>382</v>
       </c>
@@ -6088,7 +6090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>383</v>
       </c>
@@ -6096,7 +6098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>384</v>
       </c>
@@ -6104,7 +6106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>385</v>
       </c>
@@ -6112,7 +6114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>386</v>
       </c>
@@ -6120,7 +6122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>387</v>
       </c>
@@ -6128,7 +6130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>388</v>
       </c>
@@ -6136,7 +6138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>389</v>
       </c>
@@ -6144,7 +6146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>390</v>
       </c>
@@ -6152,7 +6154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>391</v>
       </c>
@@ -6160,7 +6162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>392</v>
       </c>
@@ -6168,7 +6170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>393</v>
       </c>
@@ -6176,7 +6178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>394</v>
       </c>
@@ -6184,7 +6186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>395</v>
       </c>
@@ -6192,7 +6194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>396</v>
       </c>
@@ -6200,7 +6202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>397</v>
       </c>
@@ -6208,7 +6210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>398</v>
       </c>
@@ -6216,7 +6218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>399</v>
       </c>
@@ -6224,7 +6226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>400</v>
       </c>
@@ -6232,7 +6234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>401</v>
       </c>
@@ -6240,7 +6242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>402</v>
       </c>
@@ -6248,7 +6250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>403</v>
       </c>
@@ -6256,7 +6258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>369</v>
       </c>
@@ -6264,7 +6266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>404</v>
       </c>
@@ -6272,7 +6274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>405</v>
       </c>
@@ -6280,7 +6282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>406</v>
       </c>
@@ -6288,7 +6290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>407</v>
       </c>
@@ -6296,7 +6298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>408</v>
       </c>
@@ -6304,7 +6306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>409</v>
       </c>
@@ -6312,7 +6314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>410</v>
       </c>
@@ -6320,7 +6322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>411</v>
       </c>
@@ -6328,7 +6330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>412</v>
       </c>
@@ -6336,7 +6338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>413</v>
       </c>
@@ -6344,7 +6346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>414</v>
       </c>
@@ -6352,7 +6354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>415</v>
       </c>
@@ -6360,7 +6362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>416</v>
       </c>
@@ -6368,7 +6370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>417</v>
       </c>
@@ -6376,7 +6378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>418</v>
       </c>
@@ -6384,7 +6386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>419</v>
       </c>
@@ -6392,7 +6394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>420</v>
       </c>
@@ -6400,7 +6402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>421</v>
       </c>
@@ -6408,7 +6410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>422</v>
       </c>
@@ -6416,7 +6418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>423</v>
       </c>
@@ -6424,7 +6426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>424</v>
       </c>
@@ -6432,7 +6434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>425</v>
       </c>
@@ -6440,7 +6442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>426</v>
       </c>
@@ -6448,7 +6450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>427</v>
       </c>
@@ -6456,7 +6458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>428</v>
       </c>
@@ -6464,7 +6466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>429</v>
       </c>
@@ -6472,7 +6474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>430</v>
       </c>
@@ -6480,7 +6482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>431</v>
       </c>
@@ -6488,7 +6490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>432</v>
       </c>
@@ -6496,7 +6498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>433</v>
       </c>
@@ -6504,7 +6506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>434</v>
       </c>
@@ -6512,7 +6514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>435</v>
       </c>
@@ -6520,7 +6522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>436</v>
       </c>
@@ -6528,7 +6530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>437</v>
       </c>
@@ -6536,7 +6538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>438</v>
       </c>
@@ -6544,7 +6546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>439</v>
       </c>
@@ -6552,7 +6554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>440</v>
       </c>
@@ -6560,7 +6562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>441</v>
       </c>
@@ -6568,7 +6570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>442</v>
       </c>
@@ -6576,7 +6578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>443</v>
       </c>
@@ -6584,7 +6586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>444</v>
       </c>
@@ -6592,7 +6594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>445</v>
       </c>
@@ -6600,7 +6602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>446</v>
       </c>
@@ -6608,7 +6610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>447</v>
       </c>
@@ -6616,7 +6618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:2">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>448</v>
       </c>
@@ -6624,7 +6626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>449</v>
       </c>
@@ -6632,7 +6634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:2">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>450</v>
       </c>
@@ -6640,7 +6642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:2">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>451</v>
       </c>
@@ -6648,7 +6650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:2">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>452</v>
       </c>
@@ -6656,7 +6658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>453</v>
       </c>
@@ -6664,7 +6666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>454</v>
       </c>
@@ -6672,7 +6674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:2">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>455</v>
       </c>
@@ -6680,7 +6682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:2">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>456</v>
       </c>
@@ -6688,7 +6690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:2">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>457</v>
       </c>
@@ -6696,7 +6698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:2">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>458</v>
       </c>
@@ -6704,7 +6706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:2">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>459</v>
       </c>
@@ -6712,7 +6714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:2">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>460</v>
       </c>
@@ -6720,7 +6722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:2">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>461</v>
       </c>
@@ -6728,7 +6730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:2">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>462</v>
       </c>
@@ -6736,7 +6738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>463</v>
       </c>
@@ -6744,7 +6746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:2">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>464</v>
       </c>
@@ -6752,7 +6754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>465</v>
       </c>
@@ -6760,7 +6762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:2">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>466</v>
       </c>
@@ -6768,7 +6770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>467</v>
       </c>
@@ -6776,7 +6778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>468</v>
       </c>
@@ -6784,7 +6786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:2">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>469</v>
       </c>
@@ -6792,7 +6794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:2">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>470</v>
       </c>
@@ -6800,7 +6802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:2">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>471</v>
       </c>
@@ -6808,7 +6810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:2">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>472</v>
       </c>
@@ -6816,7 +6818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:2">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>473</v>
       </c>
@@ -6824,7 +6826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:2">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>474</v>
       </c>
@@ -6832,7 +6834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:2">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>475</v>
       </c>
@@ -6840,7 +6842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:2">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>476</v>
       </c>
@@ -6848,7 +6850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:2">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>477</v>
       </c>
@@ -6856,7 +6858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:2">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>478</v>
       </c>
@@ -6864,7 +6866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:2">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>479</v>
       </c>
@@ -6872,7 +6874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:2">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>480</v>
       </c>
@@ -6880,7 +6882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:2">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>481</v>
       </c>
@@ -6888,7 +6890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:2">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>482</v>
       </c>
@@ -6896,7 +6898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:2">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>483</v>
       </c>
@@ -6904,7 +6906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:2">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>484</v>
       </c>
@@ -6912,7 +6914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>485</v>
       </c>
